--- a/Income/EMN_inc.xlsx
+++ b/Income/EMN_inc.xlsx
@@ -2105,10 +2105,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.2351</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.2369</v>
@@ -2234,10 +2232,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.0878</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0875</v>
@@ -2363,10 +2359,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.064</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0626</v>
@@ -2492,10 +2486,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.0572</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0565</v>
@@ -2621,10 +2613,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.1295</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.1267</v>
@@ -4210,10 +4200,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2007</v>
@@ -4339,10 +4327,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>0.1737</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.1719</v>
